--- a/your-code/Conditional Formats exercises.xlsx
+++ b/your-code/Conditional Formats exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c646aa9d978bc39d/Documents/Module 4/Week 1/Day 1 - Excel Basic Functions/Lab/lab_3_conditional-formating/your-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\Ironhack_lab\week_20\lab-excel-conditional-formatting\your-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8923E855-C02E-4B75-8C58-776D5767F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821F8CA9-D6B9-40E1-8A9C-FD896441D5A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C67FB2-0147-40B5-919B-C93871AE41A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1 solved" sheetId="3" state="hidden" r:id="rId1"/>
@@ -40,7 +40,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -470,7 +469,730 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="138">
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFD5DA"/>
+          <bgColor rgb="FFFFBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFD5DA"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -588,8 +1310,606 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="dotted">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC7CE"/>
+      <color rgb="FFFFBDBD"/>
+      <color rgb="FFFFD5DA"/>
+      <color rgb="FF3762AF"/>
+      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1082,9 +2402,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>718271</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:colOff>726737</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101597</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6900605" cy="2497667"/>
     <xdr:pic>
@@ -1108,7 +2428,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="611591" y="3444238"/>
+          <a:off x="726737" y="3920064"/>
           <a:ext cx="6900605" cy="2497667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1121,94 +2441,238 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>601133</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CEC066-D35A-4C3F-B113-657AD9F28F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359229C1-26EF-072B-0591-4E0B7C5C67AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7315200" y="1463040"/>
-          <a:ext cx="3403600" cy="1764454"/>
+          <a:off x="9372599" y="1413933"/>
+          <a:ext cx="3606801" cy="2032000"/>
+          <a:chOff x="9237132" y="1405467"/>
+          <a:chExt cx="3539067" cy="1964266"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Replicate the conditional formatting, as in the image and taking into account the conditions proposed.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>What happen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> if you change the Nat Ins Rate? and if Tax Rate? and Pension Cont?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Extra Bonus: Color this text box in orange and the borders in blue, with a weight of 1 pt, and dashes line. As in the image below</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58563A02-4C0E-0FD3-5BB0-2597980C8D6F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9237132" y="1405467"/>
+            <a:ext cx="3539067" cy="1964266"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Group 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306B102E-F0D9-1193-7984-2186F37E7BF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9271001" y="1430866"/>
+            <a:ext cx="3462866" cy="1905000"/>
+            <a:chOff x="9271001" y="1430866"/>
+            <a:chExt cx="3462866" cy="1905000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Rectangle 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606AAD05-CBFF-6D32-74EA-B24015B204D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9271001" y="1430866"/>
+              <a:ext cx="3462866" cy="1905000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="3762AF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CEC066-D35A-4C3F-B113-657AD9F28F50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9330267" y="1490133"/>
+              <a:ext cx="3352800" cy="1769534"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="57150" cmpd="sng">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0"/>
+                <a:t>Replicate the conditional formatting, as in the image and taking into account the conditions proposed.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0"/>
+                <a:t>What happen</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" baseline="0"/>
+                <a:t> if you change the Nat Ins Rate? and if Tax Rate? and Pension Cont?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" baseline="0"/>
+                <a:t>Extra Bonus: Color this text box in orange and the borders in blue, with a weight of 1 pt, and dashes line. As in the image below</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
@@ -2021,22 +3485,22 @@
     <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="B4:B26">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="lessThan">
       <formula>300000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C26">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="East">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="East">
       <formula>NOT(ISERROR(SEARCH("East",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D26">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="78" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -2053,7 +3517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F26">
-    <cfRule type="top10" dxfId="6" priority="1" percent="1" rank="5"/>
+    <cfRule type="top10" dxfId="76" priority="1" percent="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2147,7 +3611,7 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>45802</v>
+        <v>45824</v>
       </c>
       <c r="F4" s="17">
         <v>1000</v>
@@ -2187,7 +3651,7 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E15" ca="1" si="4">E4-1</f>
-        <v>45801</v>
+        <v>45823</v>
       </c>
       <c r="F5" s="17">
         <v>1500</v>
@@ -2227,7 +3691,7 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45800</v>
+        <v>45822</v>
       </c>
       <c r="F6" s="17">
         <v>1235</v>
@@ -2267,7 +3731,7 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45799</v>
+        <v>45821</v>
       </c>
       <c r="F7" s="17">
         <v>1452</v>
@@ -2301,7 +3765,7 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45798</v>
+        <v>45820</v>
       </c>
       <c r="F8" s="17">
         <v>5845</v>
@@ -2335,7 +3799,7 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45797</v>
+        <v>45819</v>
       </c>
       <c r="F9" s="17">
         <v>5000</v>
@@ -2369,7 +3833,7 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45796</v>
+        <v>45818</v>
       </c>
       <c r="F10" s="17">
         <v>1200</v>
@@ -2403,7 +3867,7 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45795</v>
+        <v>45817</v>
       </c>
       <c r="F11" s="17">
         <v>1320</v>
@@ -2437,7 +3901,7 @@
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45794</v>
+        <v>45816</v>
       </c>
       <c r="F12" s="17">
         <v>1478</v>
@@ -2471,7 +3935,7 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45793</v>
+        <v>45815</v>
       </c>
       <c r="F13" s="17">
         <v>5369</v>
@@ -2505,7 +3969,7 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45792</v>
+        <v>45814</v>
       </c>
       <c r="F14" s="17">
         <v>2153</v>
@@ -2539,7 +4003,7 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45791</v>
+        <v>45813</v>
       </c>
       <c r="F15" s="17">
         <v>4752</v>
@@ -2569,7 +4033,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="14">
         <f ca="1">SUM(E4:E15)</f>
-        <v>549558</v>
+        <v>549822</v>
       </c>
       <c r="F16" s="13">
         <f>SUM(F4:F15)</f>
@@ -2629,30 +4093,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="9" stopIfTrue="1">
       <formula>RIGHT(LEFT(B4,SEARCH("/",B4)+1),1)="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="74" priority="8">
       <formula>LEN(C4)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="H">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="H">
       <formula>NOT(ISERROR(SEARCH("H",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E15">
-    <cfRule type="timePeriod" dxfId="2" priority="6" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="72" priority="6" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(E4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(E4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15">
-    <cfRule type="top10" dxfId="1" priority="5" percent="1" rank="25"/>
+    <cfRule type="top10" dxfId="71" priority="5" percent="1" rank="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15">
-    <cfRule type="aboveAverage" dxfId="0" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="70" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15">
     <cfRule type="colorScale" priority="3">
@@ -2697,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3165,8 +4629,62 @@
     <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <conditionalFormatting sqref="B4:B26">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="lessThan">
+      <formula>300000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C26">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="South">
+      <formula>NOT(ISERROR(SEARCH("South",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D26">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="F">
+      <formula>NOT(ISERROR(SEARCH("F",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D7581B2-EA70-43B7-B9CD-9AC06324F995}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F26">
+    <cfRule type="top10" dxfId="23" priority="1" percent="1" rank="5"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D7581B2-EA70-43B7-B9CD-9AC06324F995}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4:E26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3174,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4E3BC9-96B0-4DE5-AD9D-A5FC7055046E}">
   <dimension ref="A3:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3238,7 +4756,7 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>45802</v>
+        <v>45824</v>
       </c>
       <c r="F4" s="17">
         <v>1000</v>
@@ -3278,7 +4796,7 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E15" ca="1" si="4">E4-1</f>
-        <v>45801</v>
+        <v>45823</v>
       </c>
       <c r="F5" s="17">
         <v>1500</v>
@@ -3318,7 +4836,7 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45800</v>
+        <v>45822</v>
       </c>
       <c r="F6" s="17">
         <v>1235</v>
@@ -3358,7 +4876,7 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45799</v>
+        <v>45821</v>
       </c>
       <c r="F7" s="17">
         <v>1452</v>
@@ -3392,7 +4910,7 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45798</v>
+        <v>45820</v>
       </c>
       <c r="F8" s="17">
         <v>5845</v>
@@ -3426,7 +4944,7 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45797</v>
+        <v>45819</v>
       </c>
       <c r="F9" s="17">
         <v>5000</v>
@@ -3460,7 +4978,7 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45796</v>
+        <v>45818</v>
       </c>
       <c r="F10" s="17">
         <v>1200</v>
@@ -3494,7 +5012,7 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45795</v>
+        <v>45817</v>
       </c>
       <c r="F11" s="17">
         <v>1320</v>
@@ -3528,7 +5046,7 @@
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45794</v>
+        <v>45816</v>
       </c>
       <c r="F12" s="17">
         <v>1478</v>
@@ -3562,7 +5080,7 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45793</v>
+        <v>45815</v>
       </c>
       <c r="F13" s="17">
         <v>5369</v>
@@ -3596,7 +5114,7 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45792</v>
+        <v>45814</v>
       </c>
       <c r="F14" s="17">
         <v>2153</v>
@@ -3630,7 +5148,7 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45791</v>
+        <v>45813</v>
       </c>
       <c r="F15" s="17">
         <v>4752</v>
@@ -3660,7 +5178,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="14">
         <f ca="1">SUM(E4:E15)</f>
-        <v>549558</v>
+        <v>549822</v>
       </c>
       <c r="F16" s="13">
         <f>SUM(F4:F15)</f>
@@ -3719,6 +5237,65 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4:I15">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H15">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1000" gte="0"/>
+        <cfvo type="num" val="2000" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="aboveAverage" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F15">
+    <cfRule type="top10" dxfId="10" priority="10" percent="1" rank="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E15">
+    <cfRule type="timePeriod" dxfId="6" priority="8" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(E4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(E4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C15">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>LEN(C4)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B15">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>VALUE(LEFT(MID(B4,FIND("/",B4)+1,10),1))=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D15">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="H">
+      <formula>NOT(ISERROR(SEARCH("H",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
